--- a/output/fit_clients/fit_round_420.xlsx
+++ b/output/fit_clients/fit_round_420.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2037326305.441936</v>
+        <v>1773125696.12231</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1063619523464808</v>
+        <v>0.08553690318025624</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03203130725083961</v>
+        <v>0.04147087780167461</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1018663153.380296</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1673164716.508431</v>
+        <v>1599482406.22001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.113097148563169</v>
+        <v>0.1266137477883207</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03258085132060273</v>
+        <v>0.03525475619305143</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>836582347.7097017</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4254916957.431576</v>
+        <v>4205482805.851585</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1370621573755142</v>
+        <v>0.1159324237536265</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03758870911491592</v>
+        <v>0.03749922120591951</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>151</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2127458510.96233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2746405736.813659</v>
+        <v>3792357998.510859</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1011169525946578</v>
+        <v>0.08774058265063234</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03928673434695245</v>
+        <v>0.03273732563052224</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>155</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1373202955.082666</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2782294313.924074</v>
+        <v>2067517123.854798</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1354575234748806</v>
+        <v>0.1415184298505903</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04605414861466512</v>
+        <v>0.04584511951178873</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>78</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1391147101.910738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2968136568.979343</v>
+        <v>2560523172.838171</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1015660356049114</v>
+        <v>0.08114148403595356</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03241974322360295</v>
+        <v>0.04952432304795442</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>132</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1484068252.451583</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3936800751.452346</v>
+        <v>3286076440.796996</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1339653706541709</v>
+        <v>0.1531474892680224</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03303700825782876</v>
+        <v>0.02871432327333277</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>134</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1968400529.023528</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2180098664.478354</v>
+        <v>1751439801.188532</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1949209534421713</v>
+        <v>0.1409736976239691</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0305824492723333</v>
+        <v>0.02836608714957885</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1090049333.882362</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3801406196.756176</v>
+        <v>5750196072.032811</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1904201861454235</v>
+        <v>0.1856342906445853</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05043936628620432</v>
+        <v>0.04119842647910527</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>177</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1900703104.891222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4137530926.839767</v>
+        <v>3936098642.048009</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1918167992572797</v>
+        <v>0.1573844901392742</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03980736769482037</v>
+        <v>0.04252138245334924</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>173</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2068765485.742896</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2993126570.667109</v>
+        <v>2783658406.434073</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1763998768696367</v>
+        <v>0.1897103050365221</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05126094058608631</v>
+        <v>0.05116674636982292</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>143</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1496563302.743573</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5213529011.162983</v>
+        <v>5171285301.128313</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1018535131686771</v>
+        <v>0.09931885310985109</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02087633345482017</v>
+        <v>0.02596068320329474</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>141</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2606764498.890629</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3560210603.401299</v>
+        <v>3588545790.702691</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1246588343694465</v>
+        <v>0.1793947546180643</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04019399808742059</v>
+        <v>0.02929316368137589</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>136</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1780105295.589723</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1114089250.903722</v>
+        <v>1184295636.507947</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08523957611669522</v>
+        <v>0.1074586784620256</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03515113909467296</v>
+        <v>0.04287804585134469</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>557044623.4651729</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2282546031.439857</v>
+        <v>2374315385.914818</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07301802821590275</v>
+        <v>0.116047909801803</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04509600819865899</v>
+        <v>0.03140710450385342</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>85</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1141273065.974634</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4915173492.611412</v>
+        <v>4296008192.167324</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1294018611621778</v>
+        <v>0.1302933815201688</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04894773132628138</v>
+        <v>0.04758811108288125</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>123</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2457586735.642991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2867401465.066471</v>
+        <v>3889607433.872656</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1144036978040686</v>
+        <v>0.1195600420086648</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03387427172263956</v>
+        <v>0.03307206209755984</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>137</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1433700772.386475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1271268571.863617</v>
+        <v>1235087866.210139</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1779735481020078</v>
+        <v>0.1684197246707167</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02695228786614058</v>
+        <v>0.01679639227368809</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>635634381.2042961</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2557312635.782127</v>
+        <v>1721936702.983683</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1423419604586443</v>
+        <v>0.1037328119343336</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02486573361326713</v>
+        <v>0.02445209025301141</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>57</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1278656284.901408</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1838738752.634188</v>
+        <v>2433393955.842113</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07125454047897446</v>
+        <v>0.08255473928671235</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03306168865548976</v>
+        <v>0.0398304224091274</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>919369427.6879698</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3893794487.858045</v>
+        <v>3096400206.200114</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1055323749462979</v>
+        <v>0.1035568369630217</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05316619204491715</v>
+        <v>0.03531975968124503</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>118</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1946897251.955098</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1179927476.664189</v>
+        <v>1399355228.02852</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1791578562186173</v>
+        <v>0.1545692402644568</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0539855473343348</v>
+        <v>0.04446324796284521</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>589963778.2086626</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4141287920.976003</v>
+        <v>2772327466.146091</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09757868905901547</v>
+        <v>0.1231437493308157</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02807743457692385</v>
+        <v>0.0348577715476527</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>122</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2070643918.991789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1453609428.904588</v>
+        <v>1224011270.158781</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08048598303954062</v>
+        <v>0.1148471138509293</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01863078131450158</v>
+        <v>0.02569144536646624</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>726804674.0872457</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1032025767.287215</v>
+        <v>1035526223.842789</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1010671002910699</v>
+        <v>0.09785515707909695</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02699668945100104</v>
+        <v>0.03053659264351092</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>516012863.5672464</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4639589639.657265</v>
+        <v>4395966859.355605</v>
       </c>
       <c r="F27" t="n">
-        <v>0.126226212107985</v>
+        <v>0.1079275687444527</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02530348128958258</v>
+        <v>0.02166528452488419</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2319794798.214249</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3016871248.810031</v>
+        <v>2400750054.436707</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1058025318427622</v>
+        <v>0.1202746581413756</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04215651348005574</v>
+        <v>0.04012726305710809</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>135</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1508435637.136269</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4508361586.711967</v>
+        <v>4599018550.231533</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1439368313369313</v>
+        <v>0.1511711220217102</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04596404176128659</v>
+        <v>0.03216294548444183</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>185</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2254180775.00108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1937183341.212752</v>
+        <v>1573922456.650057</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09453715344939172</v>
+        <v>0.09634804492129587</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02921111187199252</v>
+        <v>0.03873297166438504</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>968591700.9029821</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1062670096.889035</v>
+        <v>1190443649.600621</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08088164653837682</v>
+        <v>0.08353379159588541</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03491808384938489</v>
+        <v>0.03823576147590763</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>531335032.2477026</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1158729967.241563</v>
+        <v>1782417837.44829</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08262919181727364</v>
+        <v>0.1071452016704423</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03675039290589498</v>
+        <v>0.02438621607207746</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>579364981.3124441</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2356120779.029063</v>
+        <v>1977633518.147624</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1273431308363435</v>
+        <v>0.1716368888475197</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04821155219518222</v>
+        <v>0.03686461879340873</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>127</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1178060439.994049</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1148026592.349265</v>
+        <v>1236904269.011134</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1119261961576309</v>
+        <v>0.1058200781489917</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01985523790895633</v>
+        <v>0.01873122985935613</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>574013309.7705302</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1011692288.292543</v>
+        <v>1043662621.178804</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0929667610797022</v>
+        <v>0.07600813812324805</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03829625862613206</v>
+        <v>0.03940029286067641</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>505846160.1668386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3209381403.843466</v>
+        <v>2099468323.964577</v>
       </c>
       <c r="F36" t="n">
-        <v>0.116771081811648</v>
+        <v>0.1118938122035614</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02575018472960703</v>
+        <v>0.02749622089156443</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>107</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1604690667.092732</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2076520784.704209</v>
+        <v>2882000584.018679</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1027564698160907</v>
+        <v>0.1102097827151968</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04121955774868116</v>
+        <v>0.02907211686542595</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>113</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1038260430.183305</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1737598267.756502</v>
+        <v>1508239920.645309</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08506057751025158</v>
+        <v>0.1040101616724654</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03794165653135242</v>
+        <v>0.02430636446414146</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>868799149.5923187</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1862631221.771668</v>
+        <v>2162552897.845609</v>
       </c>
       <c r="F39" t="n">
-        <v>0.190926294859154</v>
+        <v>0.1659080973684087</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02767257875325851</v>
+        <v>0.02776089497544102</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>931315626.2982897</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1382682906.930545</v>
+        <v>1501125863.698559</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1502367014908836</v>
+        <v>0.1596694799470771</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04347399856044763</v>
+        <v>0.06014614054906299</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>691341449.0287158</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2361219553.234946</v>
+        <v>1881869390.340621</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1285065000411044</v>
+        <v>0.1228452854505501</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03349214760995292</v>
+        <v>0.04709471944556051</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>106</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1180609815.47744</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3930501052.482729</v>
+        <v>3414181822.239017</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09146615627024564</v>
+        <v>0.07695648054477114</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03927606360004372</v>
+        <v>0.04113391505227382</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>137</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1965250550.749321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2176817659.483219</v>
+        <v>2937205642.057834</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1898844612556397</v>
+        <v>0.1735870777679508</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01674169275301508</v>
+        <v>0.02023237163601049</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>147</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1088408910.919274</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1835036985.853853</v>
+        <v>2329952264.827356</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09071763803997063</v>
+        <v>0.09343054976590402</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02834066458005615</v>
+        <v>0.03547216027275576</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>917518566.3599563</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1751281010.03723</v>
+        <v>1598456617.332909</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1821786359455729</v>
+        <v>0.1539984708055008</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04402634770625053</v>
+        <v>0.03607560216790241</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>875640470.8726106</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5603616627.440804</v>
+        <v>3604930156.207889</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1330723255753921</v>
+        <v>0.168977593866413</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05305236308530331</v>
+        <v>0.05315035064784848</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>149</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2801808375.08056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3280524249.884974</v>
+        <v>4434126630.715973</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1999235613606432</v>
+        <v>0.1438424059951935</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05599715693042239</v>
+        <v>0.03638914943777879</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>112</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1640262083.335974</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3958915565.073521</v>
+        <v>3637490840.148664</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09246131426628203</v>
+        <v>0.1089916392068262</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02690572541127155</v>
+        <v>0.03928458123994537</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>138</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1979457819.341831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1990264251.802845</v>
+        <v>1289836757.974535</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1599141361571583</v>
+        <v>0.1505968093173179</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03048969804716133</v>
+        <v>0.03290925077797342</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>995132081.7295157</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4140498380.108749</v>
+        <v>2916007754.494261</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1520951060022976</v>
+        <v>0.1624599016188103</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05003849600758448</v>
+        <v>0.04317708723391074</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>144</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2070249168.756931</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1100896603.374195</v>
+        <v>1510122530.710733</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1822895498817934</v>
+        <v>0.1191162372431962</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03611974753637096</v>
+        <v>0.04959768956905344</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>550448369.3069652</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4190042535.615572</v>
+        <v>4438544810.916215</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08888230121605258</v>
+        <v>0.09859726994505939</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04529906809980293</v>
+        <v>0.04985617378501376</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>173</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2095021313.117472</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3699048066.703993</v>
+        <v>3108354472.929436</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1248759809756055</v>
+        <v>0.1364863061487609</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0298737591646067</v>
+        <v>0.0244615232338025</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>121</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1849524017.497004</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4100304065.419252</v>
+        <v>3752500587.346592</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1220896723245843</v>
+        <v>0.1421201656302827</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03357900825867596</v>
+        <v>0.04867745147429026</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>136</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2050152104.683459</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4240215967.159954</v>
+        <v>4773817550.164116</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1726882957628295</v>
+        <v>0.187478122148026</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02676145059065628</v>
+        <v>0.02036317977564775</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2120107969.10789</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1366094977.354167</v>
+        <v>1433597528.504092</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1462925186526702</v>
+        <v>0.1238953334428165</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05736591752603561</v>
+        <v>0.05721272993888511</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>683047550.7662462</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3111321943.330502</v>
+        <v>3569479818.305703</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1677640479513653</v>
+        <v>0.1474160691541932</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01960946164722943</v>
+        <v>0.02041424068868642</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>133</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1555660985.433431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1467288439.726618</v>
+        <v>1149196831.565208</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1723854585007341</v>
+        <v>0.1382744566941964</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03912372595092083</v>
+        <v>0.03559171038616813</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>733644253.9928656</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4592097746.543957</v>
+        <v>3770308478.386752</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09509561963783023</v>
+        <v>0.08902192101010832</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04349057268209699</v>
+        <v>0.04363286199857028</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2296048820.680519</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2306108488.55941</v>
+        <v>3619807455.274209</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1934101907698059</v>
+        <v>0.173869549364831</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02826215018225349</v>
+        <v>0.02906894747320911</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>129</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1153054241.862466</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2705733684.621558</v>
+        <v>2673698574.630724</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1546138942653661</v>
+        <v>0.1376544280864251</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02763106822360165</v>
+        <v>0.02104490692586177</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>144</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1352866850.547087</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1499155015.250113</v>
+        <v>1792597554.406163</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1188967083407036</v>
+        <v>0.1908620408586853</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03182771130576684</v>
+        <v>0.04462040628577722</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>749577490.5834078</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3713016560.632524</v>
+        <v>4328006232.604475</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08141319166383197</v>
+        <v>0.07817657677789626</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02931689266170796</v>
+        <v>0.04656582871695316</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>120</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1856508355.524077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5228244531.656031</v>
+        <v>5125304767.704151</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1719269592376727</v>
+        <v>0.145377071273024</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03340155809457571</v>
+        <v>0.02412561679928388</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>130</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2614122388.100673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4731999984.931787</v>
+        <v>3713486129.809308</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1444376565766225</v>
+        <v>0.1317872891184019</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02022523097560065</v>
+        <v>0.02967673522427014</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>150</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2365999967.392069</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3474306877.14986</v>
+        <v>4661943320.963532</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1557046421995872</v>
+        <v>0.1517164502544981</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03975071569702253</v>
+        <v>0.04722470656678706</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>123</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1737153383.980289</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2518861016.230057</v>
+        <v>2378910820.687191</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08006848127888891</v>
+        <v>0.0996162540219783</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04463774697911777</v>
+        <v>0.034439598736097</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>134</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1259430567.15371</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4393850898.86632</v>
+        <v>3666092608.013229</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1562422414152948</v>
+        <v>0.1525538390351314</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04730784581032493</v>
+        <v>0.03780570691877876</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>134</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2196925469.097855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2053118511.747205</v>
+        <v>1803355210.693501</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1671231045756465</v>
+        <v>0.1113227094975963</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05191638066274856</v>
+        <v>0.04856252089157589</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1026559267.699252</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3456506513.007796</v>
+        <v>3219453152.641939</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07538464444731395</v>
+        <v>0.09761075845390649</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0373113533545781</v>
+        <v>0.04183185021155327</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>120</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1728253263.22912</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5156694895.017977</v>
+        <v>4694847702.699762</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1487632460803073</v>
+        <v>0.1237672191882425</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02303138602330088</v>
+        <v>0.0271672339872548</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>153</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2578347564.963801</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2085156699.319919</v>
+        <v>2059200765.671651</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09554841227411785</v>
+        <v>0.0763656645200739</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05027788904124885</v>
+        <v>0.04053928759628723</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1042578282.284339</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2232269222.798051</v>
+        <v>2615898700.765005</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1083787768694533</v>
+        <v>0.0795916956518562</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04145101359373044</v>
+        <v>0.03324156552120681</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>159</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1116134677.703942</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3601299279.684438</v>
+        <v>3870973757.358897</v>
       </c>
       <c r="F74" t="n">
-        <v>0.180257688750353</v>
+        <v>0.1397573688034415</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03186508598681208</v>
+        <v>0.03540378114231602</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>143</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1800649653.294649</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1549143364.368052</v>
+        <v>2335381534.992708</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1365693659630875</v>
+        <v>0.127616597152397</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03559401656062555</v>
+        <v>0.0320767861584871</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>774571688.6499546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4354583077.636348</v>
+        <v>4495263159.697096</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1079988577998493</v>
+        <v>0.1180487416883115</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02776618287942172</v>
+        <v>0.03091555322474995</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>95</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2177291538.393237</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2245300949.240232</v>
+        <v>1975165073.077058</v>
       </c>
       <c r="F77" t="n">
-        <v>0.122155271140042</v>
+        <v>0.182475251724637</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02362141316097347</v>
+        <v>0.01975136504293971</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1122650572.423366</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3751777931.207594</v>
+        <v>3542702813.380434</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1085153562162847</v>
+        <v>0.129492715951249</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04740262750220255</v>
+        <v>0.04985821364828366</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>146</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1875888949.120847</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1771090325.662731</v>
+        <v>1665370625.814294</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1694765773617347</v>
+        <v>0.1472821325681353</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03564240770827467</v>
+        <v>0.03397376356221059</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>885545244.4720838</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5250684350.03721</v>
+        <v>3589813291.319412</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07782180998863865</v>
+        <v>0.1052190530598912</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03812510399921816</v>
+        <v>0.03418345577526705</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2625342236.703741</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3928697439.358897</v>
+        <v>3675754020.09382</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08605124474667059</v>
+        <v>0.1220111610910119</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02975244379476064</v>
+        <v>0.03255155668499199</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1964348680.258146</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4471130091.905792</v>
+        <v>5210469707.216666</v>
       </c>
       <c r="F82" t="n">
-        <v>0.193813319503216</v>
+        <v>0.177346465239692</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02723344257090266</v>
+        <v>0.01907557508233707</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>148</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2235565059.445932</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1934024412.043872</v>
+        <v>2330782444.971678</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1289847117198454</v>
+        <v>0.1478383653684992</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04421859457608793</v>
+        <v>0.04265987776839265</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>967012183.15653</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2525459471.532629</v>
+        <v>1813134233.681871</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09657056223967037</v>
+        <v>0.1100869339992776</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04268510453101184</v>
+        <v>0.04363650599419391</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1262729663.845205</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3111380390.728776</v>
+        <v>3088603311.738411</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1480493783100038</v>
+        <v>0.1634374888273792</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0561276904099707</v>
+        <v>0.05659344397149092</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>158</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1555690267.830036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2438607603.702017</v>
+        <v>2457562614.883424</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1443798690230631</v>
+        <v>0.1699972867009592</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02597837315412219</v>
+        <v>0.02603077391232902</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1219303890.492744</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1134722273.602201</v>
+        <v>1499708534.189375</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1394776128641535</v>
+        <v>0.145325737039755</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03447314415654305</v>
+        <v>0.02743083525805341</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>567361175.6637995</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3430698722.898654</v>
+        <v>3709504727.046669</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1759922196488219</v>
+        <v>0.1185431816711164</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03239157283441255</v>
+        <v>0.02854145642099623</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>167</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1715349434.491675</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2488453562.305765</v>
+        <v>2514010044.50892</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1422838431150107</v>
+        <v>0.1532005773522835</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03092667043063619</v>
+        <v>0.02804240350814132</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>141</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1244226856.766572</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1349297374.685033</v>
+        <v>1892864163.218614</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1059132463463689</v>
+        <v>0.1062538436401409</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05140274035271677</v>
+        <v>0.05006311127717865</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>674648638.5387338</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1735049242.086127</v>
+        <v>1610722544.400611</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1381972229127605</v>
+        <v>0.1486517421007126</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03749469502457079</v>
+        <v>0.04151022824898902</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>867524628.6348368</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2524839161.818699</v>
+        <v>2714075175.580783</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09049343077421791</v>
+        <v>0.07759019690897059</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03102799445063641</v>
+        <v>0.0370338441000474</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>120</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1262419566.799025</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4165081713.557706</v>
+        <v>3790553051.967868</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1154754454880929</v>
+        <v>0.1367702803954301</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0343569305056072</v>
+        <v>0.04316666511568796</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>126</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2082540846.753135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2440906968.606616</v>
+        <v>1600323179.089788</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1630847148020249</v>
+        <v>0.1426122270145151</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03334239982527332</v>
+        <v>0.0330553716966221</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1220453540.069449</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2459518005.321995</v>
+        <v>2351941221.66762</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08394160305347306</v>
+        <v>0.1068600594632022</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03678678753511552</v>
+        <v>0.03892735373147109</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>102</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1229759041.704524</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2353826986.974308</v>
+        <v>2318506685.693388</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1074958112782643</v>
+        <v>0.1136074176038122</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04278178400473803</v>
+        <v>0.0322489553014762</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1176913442.714893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5380401885.000093</v>
+        <v>3339856928.278265</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1187362573804511</v>
+        <v>0.1617107209559202</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0278428955998712</v>
+        <v>0.02802202912982154</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>134</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2690201109.902743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2471279566.672784</v>
+        <v>3934439026.8782</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09314657903026211</v>
+        <v>0.09095732032152724</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02956702841454396</v>
+        <v>0.0319874922791249</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>112</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1235639732.185115</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3238348297.578543</v>
+        <v>2579500517.396612</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1362013254936956</v>
+        <v>0.1117518165040034</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03036396425047275</v>
+        <v>0.02848381959799155</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>133</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1619174152.009337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4210005845.636876</v>
+        <v>3353953633.601895</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1116912619513181</v>
+        <v>0.1730721421517348</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02550690729186725</v>
+        <v>0.02768288243384466</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>130</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2105003010.282669</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3541636387.439886</v>
+        <v>2583204172.415603</v>
       </c>
       <c r="F101" t="n">
-        <v>0.201865935413752</v>
+        <v>0.1748103872952234</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05807682390441619</v>
+        <v>0.05681381795780642</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>170</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1770818354.358327</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_420.xlsx
+++ b/output/fit_clients/fit_round_420.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1773125696.12231</v>
+        <v>2140967021.295925</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08553690318025624</v>
+        <v>0.08859205157981552</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04147087780167461</v>
+        <v>0.04227459562373007</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1599482406.22001</v>
+        <v>2200544882.094124</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1266137477883207</v>
+        <v>0.1340750518810455</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03525475619305143</v>
+        <v>0.04674908224013188</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4205482805.851585</v>
+        <v>3832151826.328727</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1159324237536265</v>
+        <v>0.1454163118335075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03749922120591951</v>
+        <v>0.03149506086400287</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3792357998.510859</v>
+        <v>2883877090.494929</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08774058265063234</v>
+        <v>0.1104719470506983</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03273732563052224</v>
+        <v>0.03217294803695907</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2067517123.854798</v>
+        <v>2019130062.515712</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1415184298505903</v>
+        <v>0.1087423577905687</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04584511951178873</v>
+        <v>0.03671732582931812</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2560523172.838171</v>
+        <v>3112844010.131476</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08114148403595356</v>
+        <v>0.06582758445635258</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04952432304795442</v>
+        <v>0.04519181530476558</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3286076440.796996</v>
+        <v>3071110285.914881</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1531474892680224</v>
+        <v>0.1426028466208618</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02871432327333277</v>
+        <v>0.02672878244196045</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1751439801.188532</v>
+        <v>1864158196.484788</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1409736976239691</v>
+        <v>0.184139961140396</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02836608714957885</v>
+        <v>0.025898153072372</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5750196072.032811</v>
+        <v>5158433997.321415</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1856342906445853</v>
+        <v>0.1510135220452324</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04119842647910527</v>
+        <v>0.03976526464071368</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3936098642.048009</v>
+        <v>3075363013.157372</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1573844901392742</v>
+        <v>0.1872357766527234</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04252138245334924</v>
+        <v>0.03193789220656006</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2783658406.434073</v>
+        <v>2634969137.065305</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1897103050365221</v>
+        <v>0.1628651191617691</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05116674636982292</v>
+        <v>0.04534518181901821</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5171285301.128313</v>
+        <v>3363817260.42249</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09931885310985109</v>
+        <v>0.07694926824828723</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02596068320329474</v>
+        <v>0.03120140741985271</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3588545790.702691</v>
+        <v>2403492374.83421</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1793947546180643</v>
+        <v>0.1632825708684715</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02929316368137589</v>
+        <v>0.03332301921714532</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1184295636.507947</v>
+        <v>1582759476.00677</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1074586784620256</v>
+        <v>0.08205007402161547</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04287804585134469</v>
+        <v>0.04689895146632873</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2374315385.914818</v>
+        <v>2569931258.287225</v>
       </c>
       <c r="F16" t="n">
-        <v>0.116047909801803</v>
+        <v>0.09556829552740582</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03140710450385342</v>
+        <v>0.03569182657896293</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4296008192.167324</v>
+        <v>4256797986.643826</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1302933815201688</v>
+        <v>0.1733688999841161</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04758811108288125</v>
+        <v>0.04509380341481023</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3889607433.872656</v>
+        <v>3069994140.440257</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1195600420086648</v>
+        <v>0.1668683716329682</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03307206209755984</v>
+        <v>0.03261553159266969</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1235087866.210139</v>
+        <v>1095557936.243479</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1684197246707167</v>
+        <v>0.1323777237381425</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01679639227368809</v>
+        <v>0.02449119324067106</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1721936702.983683</v>
+        <v>1746015168.5491</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1037328119343336</v>
+        <v>0.1302254323309062</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02445209025301141</v>
+        <v>0.02446642261704185</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2433393955.842113</v>
+        <v>2534847424.477366</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08255473928671235</v>
+        <v>0.07423867285825447</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0398304224091274</v>
+        <v>0.03901434089434778</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3096400206.200114</v>
+        <v>2972478202.396018</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1035568369630217</v>
+        <v>0.1287519977652418</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03531975968124503</v>
+        <v>0.04720745607178297</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1399355228.02852</v>
+        <v>963341732.3672948</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1545692402644568</v>
+        <v>0.1790178528322706</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04446324796284521</v>
+        <v>0.0367027384128876</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2772327466.146091</v>
+        <v>2501924464.35878</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1231437493308157</v>
+        <v>0.1028505695956526</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0348577715476527</v>
+        <v>0.02641785615019928</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1224011270.158781</v>
+        <v>1098756135.811095</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1148471138509293</v>
+        <v>0.08796649203912049</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02569144536646624</v>
+        <v>0.02055086740570432</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1035526223.842789</v>
+        <v>1006395849.769388</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09785515707909695</v>
+        <v>0.09384316534306923</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03053659264351092</v>
+        <v>0.02843628620594399</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4395966859.355605</v>
+        <v>4492258425.478003</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1079275687444527</v>
+        <v>0.09674685370401477</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02166528452488419</v>
+        <v>0.01907340794097617</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2400750054.436707</v>
+        <v>3685865992.661796</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1202746581413756</v>
+        <v>0.1241049647955736</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04012726305710809</v>
+        <v>0.03845296243262143</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4599018550.231533</v>
+        <v>5555521867.3986</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1511711220217102</v>
+        <v>0.1381583151402678</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03216294548444183</v>
+        <v>0.03200148252144861</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1573922456.650057</v>
+        <v>1783771684.979991</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09634804492129587</v>
+        <v>0.1339460619227635</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03873297166438504</v>
+        <v>0.02949663054374242</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1190443649.600621</v>
+        <v>1124018526.2592</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08353379159588541</v>
+        <v>0.09535596695350741</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03823576147590763</v>
+        <v>0.03270207462915931</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1782417837.44829</v>
+        <v>1749244895.235147</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1071452016704423</v>
+        <v>0.1008399876556202</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02438621607207746</v>
+        <v>0.03542033126767873</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1977633518.147624</v>
+        <v>2447087676.539297</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1716368888475197</v>
+        <v>0.2027214799542676</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03686461879340873</v>
+        <v>0.04851544575038692</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1236904269.011134</v>
+        <v>1532475528.592193</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1058200781489917</v>
+        <v>0.1106405521862212</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01873122985935613</v>
+        <v>0.01945849855656762</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1043662621.178804</v>
+        <v>1075037755.218921</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07600813812324805</v>
+        <v>0.08842387420389874</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03940029286067641</v>
+        <v>0.04155412962661218</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2099468323.964577</v>
+        <v>2150450544.619474</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1118938122035614</v>
+        <v>0.1512766481441483</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02749622089156443</v>
+        <v>0.01866657512045793</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2882000584.018679</v>
+        <v>1845619242.98966</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1102097827151968</v>
+        <v>0.08922525118730061</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02907211686542595</v>
+        <v>0.03004625506428673</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1508239920.645309</v>
+        <v>1870725241.384558</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1040101616724654</v>
+        <v>0.1144789005461186</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02430636446414146</v>
+        <v>0.03413143948671305</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2162552897.845609</v>
+        <v>1495925375.44722</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1659080973684087</v>
+        <v>0.1184741232329194</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02776089497544102</v>
+        <v>0.03304658116350148</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1501125863.698559</v>
+        <v>1781928745.143715</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1596694799470771</v>
+        <v>0.105423460776575</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06014614054906299</v>
+        <v>0.04913595813105179</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1881869390.340621</v>
+        <v>1868843390.187727</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1228452854505501</v>
+        <v>0.1264272938830771</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04709471944556051</v>
+        <v>0.02869245665121126</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3414181822.239017</v>
+        <v>3054172033.191727</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07695648054477114</v>
+        <v>0.1011112686194306</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04113391505227382</v>
+        <v>0.04651284524734613</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2937205642.057834</v>
+        <v>2222316091.96948</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1735870777679508</v>
+        <v>0.1350821175481442</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02023237163601049</v>
+        <v>0.02199510777987394</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2329952264.827356</v>
+        <v>1774269641.906999</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09343054976590402</v>
+        <v>0.0900846423691911</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03547216027275576</v>
+        <v>0.03464336509148957</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1598456617.332909</v>
+        <v>1630596626.484925</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1539984708055008</v>
+        <v>0.189388335920998</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03607560216790241</v>
+        <v>0.04870990738878842</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3604930156.207889</v>
+        <v>4885328297.277294</v>
       </c>
       <c r="F46" t="n">
-        <v>0.168977593866413</v>
+        <v>0.1555902243720379</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05315035064784848</v>
+        <v>0.04971087669779121</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4434126630.715973</v>
+        <v>5018543276.333903</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1438424059951935</v>
+        <v>0.1853623635630847</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03638914943777879</v>
+        <v>0.05495848150381108</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3637490840.148664</v>
+        <v>4599500453.540297</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1089916392068262</v>
+        <v>0.08358657999554683</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03928458123994537</v>
+        <v>0.02831787833478363</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1289836757.974535</v>
+        <v>1481847021.691496</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1505968093173179</v>
+        <v>0.1406206760816596</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03290925077797342</v>
+        <v>0.03141384157018733</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2916007754.494261</v>
+        <v>2602845347.633996</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1624599016188103</v>
+        <v>0.16892090177935</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04317708723391074</v>
+        <v>0.04276705099054887</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1510122530.710733</v>
+        <v>1423283246.092968</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1191162372431962</v>
+        <v>0.1218801994698734</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04959768956905344</v>
+        <v>0.04138026781002969</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4438544810.916215</v>
+        <v>3528132912.845123</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09859726994505939</v>
+        <v>0.115650084397725</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04985617378501376</v>
+        <v>0.03916124629040001</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3108354472.929436</v>
+        <v>3066408124.166564</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1364863061487609</v>
+        <v>0.176331937917658</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0244615232338025</v>
+        <v>0.03008591243318049</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3752500587.346592</v>
+        <v>3732051158.072659</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1421201656302827</v>
+        <v>0.1240112525087384</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04867745147429026</v>
+        <v>0.05135720985638354</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4773817550.164116</v>
+        <v>3267883555.524414</v>
       </c>
       <c r="F55" t="n">
-        <v>0.187478122148026</v>
+        <v>0.1678951569775518</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02036317977564775</v>
+        <v>0.02427751704435154</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1433597528.504092</v>
+        <v>1681900795.659904</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1238953334428165</v>
+        <v>0.1302465134623989</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05721272993888511</v>
+        <v>0.04747328301008887</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3569479818.305703</v>
+        <v>4370030065.309904</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1474160691541932</v>
+        <v>0.1364744985778443</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02041424068868642</v>
+        <v>0.022945902324393</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1149196831.565208</v>
+        <v>1460277594.730954</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1382744566941964</v>
+        <v>0.1464434728689151</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03559171038616813</v>
+        <v>0.02912528512778238</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3770308478.386752</v>
+        <v>4034187232.520464</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08902192101010832</v>
+        <v>0.08291715334983911</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04363286199857028</v>
+        <v>0.03657616705594203</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3619807455.274209</v>
+        <v>2627392056.563209</v>
       </c>
       <c r="F60" t="n">
-        <v>0.173869549364831</v>
+        <v>0.1450351795372578</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02906894747320911</v>
+        <v>0.0308372687238113</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2673698574.630724</v>
+        <v>2462744674.757356</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1376544280864251</v>
+        <v>0.1230765259034128</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02104490692586177</v>
+        <v>0.02427877132009171</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1792597554.406163</v>
+        <v>1750268705.156369</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1908620408586853</v>
+        <v>0.1209739789600303</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04462040628577722</v>
+        <v>0.03364832505250504</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4328006232.604475</v>
+        <v>3486871444.508263</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07817657677789626</v>
+        <v>0.08567257702287732</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04656582871695316</v>
+        <v>0.03694209461912215</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5125304767.704151</v>
+        <v>5118361438.593154</v>
       </c>
       <c r="F64" t="n">
-        <v>0.145377071273024</v>
+        <v>0.1811508325319209</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02412561679928388</v>
+        <v>0.02666393404018618</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3713486129.809308</v>
+        <v>5684951694.968405</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1317872891184019</v>
+        <v>0.1498360080247486</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02967673522427014</v>
+        <v>0.0266541347991202</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4661943320.963532</v>
+        <v>4854369521.573629</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1517164502544981</v>
+        <v>0.1107367721978774</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04722470656678706</v>
+        <v>0.04371092430016654</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2378910820.687191</v>
+        <v>2256470633.673437</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0996162540219783</v>
+        <v>0.07202246987974253</v>
       </c>
       <c r="G67" t="n">
-        <v>0.034439598736097</v>
+        <v>0.03439938521403495</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3666092608.013229</v>
+        <v>5733361465.963419</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1525538390351314</v>
+        <v>0.1036388313799966</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03780570691877876</v>
+        <v>0.04028673787313925</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1803355210.693501</v>
+        <v>1979969836.677523</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1113227094975963</v>
+        <v>0.1413711082989261</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04856252089157589</v>
+        <v>0.04064361608817842</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3219453152.641939</v>
+        <v>2644085785.866614</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09761075845390649</v>
+        <v>0.07988991176395334</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04183185021155327</v>
+        <v>0.0485416957763343</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4694847702.699762</v>
+        <v>5326307212.698339</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1237672191882425</v>
+        <v>0.1498661204923412</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0271672339872548</v>
+        <v>0.03053994795254465</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2059200765.671651</v>
+        <v>2170536559.791211</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0763656645200739</v>
+        <v>0.08189509445827078</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04053928759628723</v>
+        <v>0.04691722304694459</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2615898700.765005</v>
+        <v>2204627670.333212</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0795916956518562</v>
+        <v>0.09828644296392981</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03324156552120681</v>
+        <v>0.03942290732322733</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3870973757.358897</v>
+        <v>3707959531.868813</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1397573688034415</v>
+        <v>0.1802889694670454</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03540378114231602</v>
+        <v>0.02435911039743999</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,16 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2335381534.992708</v>
+        <v>2042923543.880548</v>
       </c>
       <c r="F75" t="n">
-        <v>0.127616597152397</v>
+        <v>0.1461796248822865</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0320767861584871</v>
+        <v>0.02615277866885196</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4495263159.697096</v>
+        <v>5376916092.413427</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1180487416883115</v>
+        <v>0.09214001794716278</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03091555322474995</v>
+        <v>0.02266095547976152</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1975165073.077058</v>
+        <v>1468406410.520453</v>
       </c>
       <c r="F77" t="n">
-        <v>0.182475251724637</v>
+        <v>0.1772159133033663</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01975136504293971</v>
+        <v>0.02149646828513239</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3542702813.380434</v>
+        <v>3390158955.316575</v>
       </c>
       <c r="F78" t="n">
-        <v>0.129492715951249</v>
+        <v>0.1157865907836517</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04985821364828366</v>
+        <v>0.03886104014769743</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1665370625.814294</v>
+        <v>1815873190.240484</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1472821325681353</v>
+        <v>0.1682336984699193</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03397376356221059</v>
+        <v>0.03915728188611523</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3589813291.319412</v>
+        <v>4507248087.04428</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1052190530598912</v>
+        <v>0.1069571798835183</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03418345577526705</v>
+        <v>0.03099307489401798</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3675754020.09382</v>
+        <v>4280982222.66269</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1220111610910119</v>
+        <v>0.1232225819862665</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03255155668499199</v>
+        <v>0.02882850096674467</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5210469707.216666</v>
+        <v>5393789198.246494</v>
       </c>
       <c r="F82" t="n">
-        <v>0.177346465239692</v>
+        <v>0.1843386400161132</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01907557508233707</v>
+        <v>0.02583181726386531</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2330782444.971678</v>
+        <v>2248875795.582799</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1478383653684992</v>
+        <v>0.1349974394050552</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04265987776839265</v>
+        <v>0.0439549350038589</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1813134233.681871</v>
+        <v>1862280618.437581</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1100869339992776</v>
+        <v>0.1011529478928599</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04363650599419391</v>
+        <v>0.04723611374690618</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3088603311.738411</v>
+        <v>2950008116.483078</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1634374888273792</v>
+        <v>0.1655103019996809</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05659344397149092</v>
+        <v>0.04530932722164613</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2457562614.883424</v>
+        <v>1792394139.001093</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1699972867009592</v>
+        <v>0.1492545647661912</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02603077391232902</v>
+        <v>0.02459583236526035</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1499708534.189375</v>
+        <v>992429193.768436</v>
       </c>
       <c r="F87" t="n">
-        <v>0.145325737039755</v>
+        <v>0.1590936445804154</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02743083525805341</v>
+        <v>0.02790871149477843</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3709504727.046669</v>
+        <v>3279568404.133852</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1185431816711164</v>
+        <v>0.1224924383123476</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02854145642099623</v>
+        <v>0.02494968376184582</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2514010044.50892</v>
+        <v>3365087447.768385</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1532005773522835</v>
+        <v>0.1309098222177363</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02804240350814132</v>
+        <v>0.02847716625899577</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1892864163.218614</v>
+        <v>2075905552.327343</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1062538436401409</v>
+        <v>0.1315954040226704</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05006311127717865</v>
+        <v>0.03534616144378772</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1610722544.400611</v>
+        <v>1451257016.727473</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1486517421007126</v>
+        <v>0.1266422423551652</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04151022824898902</v>
+        <v>0.04012134084217839</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2714075175.580783</v>
+        <v>2816681166.490948</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07759019690897059</v>
+        <v>0.08596016164152012</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0370338441000474</v>
+        <v>0.04717329294241506</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3790553051.967868</v>
+        <v>4705011538.069028</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1367702803954301</v>
+        <v>0.0980877779742277</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04316666511568796</v>
+        <v>0.04772801479770646</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1600323179.089788</v>
+        <v>2438941770.952787</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1426122270145151</v>
+        <v>0.119951871679476</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0330553716966221</v>
+        <v>0.03868427388288612</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2351941221.66762</v>
+        <v>2876840840.202679</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1068600594632022</v>
+        <v>0.09763661647590022</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03892735373147109</v>
+        <v>0.03883720146373283</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2318506685.693388</v>
+        <v>1542590720.33043</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1136074176038122</v>
+        <v>0.1306369793096833</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0322489553014762</v>
+        <v>0.03685345083091166</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3339856928.278265</v>
+        <v>4092554717.097694</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1617107209559202</v>
+        <v>0.1606832910998449</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02802202912982154</v>
+        <v>0.02060613411687819</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3934439026.8782</v>
+        <v>2692147574.271396</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09095732032152724</v>
+        <v>0.08366260724425138</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0319874922791249</v>
+        <v>0.02558474273319323</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2579500517.396612</v>
+        <v>2464916433.638357</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1117518165040034</v>
+        <v>0.102905502659556</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02848381959799155</v>
+        <v>0.02962880300000217</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3353953633.601895</v>
+        <v>3731798630.690061</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1730721421517348</v>
+        <v>0.1534201720736503</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02768288243384466</v>
+        <v>0.02054646461310866</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2583204172.415603</v>
+        <v>2644187619.237813</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1748103872952234</v>
+        <v>0.1715289418087632</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05681381795780642</v>
+        <v>0.04738221282169557</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_420.xlsx
+++ b/output/fit_clients/fit_round_420.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2140967021.295925</v>
+        <v>2172410504.17052</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08859205157981552</v>
+        <v>0.1034739359687087</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04227459562373007</v>
+        <v>0.03442385308769066</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2200544882.094124</v>
+        <v>2127545001.829436</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1340750518810455</v>
+        <v>0.1521052146415213</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04674908224013188</v>
+        <v>0.03281231201307941</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3832151826.328727</v>
+        <v>5042219568.345493</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1454163118335075</v>
+        <v>0.1579485015708648</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03149506086400287</v>
+        <v>0.03327411649393054</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>213</v>
+      </c>
+      <c r="J4" t="n">
+        <v>420</v>
+      </c>
+      <c r="K4" t="n">
+        <v>43.34406453817579</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2883877090.494929</v>
+        <v>3289635486.786426</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1104719470506983</v>
+        <v>0.0834373194278915</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03217294803695907</v>
+        <v>0.04510313797593604</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>173</v>
+      </c>
+      <c r="J5" t="n">
+        <v>415</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2019130062.515712</v>
+        <v>2446387190.738051</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1087423577905687</v>
+        <v>0.09352802983804788</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03671732582931812</v>
+        <v>0.05223978084783208</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3112844010.131476</v>
+        <v>3089436331.14412</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06582758445635258</v>
+        <v>0.07717334167846575</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04519181530476558</v>
+        <v>0.03075072409920576</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3071110285.914881</v>
+        <v>3271260706.801712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1426028466208618</v>
+        <v>0.1427624702144935</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02672878244196045</v>
+        <v>0.02987943395178526</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>113</v>
+      </c>
+      <c r="J8" t="n">
+        <v>412</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1864158196.484788</v>
+        <v>1910252398.832596</v>
       </c>
       <c r="F9" t="n">
-        <v>0.184139961140396</v>
+        <v>0.1520460177045543</v>
       </c>
       <c r="G9" t="n">
-        <v>0.025898153072372</v>
+        <v>0.03532664681075936</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5158433997.321415</v>
+        <v>3748136906.553914</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1510135220452324</v>
+        <v>0.1460750958897735</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03976526464071368</v>
+        <v>0.03870165772966447</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>335</v>
+      </c>
+      <c r="J10" t="n">
+        <v>419</v>
+      </c>
+      <c r="K10" t="n">
+        <v>35.32762214472228</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3075363013.157372</v>
+        <v>3237197904.710799</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1872357766527234</v>
+        <v>0.1660021290894954</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03193789220656006</v>
+        <v>0.04154876402519031</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>173</v>
+      </c>
+      <c r="J11" t="n">
+        <v>417</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2634969137.065305</v>
+        <v>2962874918.296336</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1628651191617691</v>
+        <v>0.1982604949724583</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04534518181901821</v>
+        <v>0.04152513627282177</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3363817260.42249</v>
+        <v>4587864344.262177</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07694926824828723</v>
+        <v>0.06398418123881885</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03120140741985271</v>
+        <v>0.02817331866628579</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>219</v>
+      </c>
+      <c r="J13" t="n">
+        <v>420</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2403492374.83421</v>
+        <v>3566793374.336126</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1632825708684715</v>
+        <v>0.1849161855932915</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03332301921714532</v>
+        <v>0.03285367827550395</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>87</v>
+      </c>
+      <c r="J14" t="n">
+        <v>420</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +960,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1582759476.00677</v>
+        <v>1153420144.927341</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08205007402161547</v>
+        <v>0.09483323900707603</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04689895146632873</v>
+        <v>0.03482113517337092</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2569931258.287225</v>
+        <v>2355759419.200641</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09556829552740582</v>
+        <v>0.1033781636522619</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03569182657896293</v>
+        <v>0.04519342502846818</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4256797986.643826</v>
+        <v>5105850744.948683</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1733688999841161</v>
+        <v>0.1243876752316966</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04509380341481023</v>
+        <v>0.03284591915279774</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>204</v>
+      </c>
+      <c r="J17" t="n">
+        <v>419</v>
+      </c>
+      <c r="K17" t="n">
+        <v>41.73887416624714</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3069994140.440257</v>
+        <v>3382165541.52177</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1668683716329682</v>
+        <v>0.1480224739343108</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03261553159266969</v>
+        <v>0.03070466981518005</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>108</v>
+      </c>
+      <c r="J18" t="n">
+        <v>416</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1095557936.243479</v>
+        <v>1162245579.805547</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1323777237381425</v>
+        <v>0.1743399310396901</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02449119324067106</v>
+        <v>0.02533381268763416</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1746015168.5491</v>
+        <v>1967438616.389803</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1302254323309062</v>
+        <v>0.1238305525314295</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02446642261704185</v>
+        <v>0.02344024148245079</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2534847424.477366</v>
+        <v>1999978173.717316</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07423867285825447</v>
+        <v>0.06785949915292955</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03901434089434778</v>
+        <v>0.0396164545699494</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1207,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2972478202.396018</v>
+        <v>2751353581.121955</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1287519977652418</v>
+        <v>0.1399730972389095</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04720745607178297</v>
+        <v>0.04632636299983157</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>117</v>
+      </c>
+      <c r="J22" t="n">
+        <v>416</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>963341732.3672948</v>
+        <v>1101758014.557219</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1790178528322706</v>
+        <v>0.1628094547768571</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0367027384128876</v>
+        <v>0.04845686342308115</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2501924464.35878</v>
+        <v>3518716852.456279</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1028505695956526</v>
+        <v>0.09277444569254167</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02641785615019928</v>
+        <v>0.0251870919750161</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>132</v>
+      </c>
+      <c r="J24" t="n">
+        <v>420</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1098756135.811095</v>
+        <v>1148095014.348571</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08796649203912049</v>
+        <v>0.1191843360784299</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02055086740570432</v>
+        <v>0.02369094367791414</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1006395849.769388</v>
+        <v>1059380794.876215</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09384316534306923</v>
+        <v>0.1138390577291206</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02843628620594399</v>
+        <v>0.03733047651551933</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1382,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4492258425.478003</v>
+        <v>3993290134.99064</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09674685370401477</v>
+        <v>0.1217225274655854</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01907340794097617</v>
+        <v>0.01764944356145632</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>179</v>
+      </c>
+      <c r="J27" t="n">
+        <v>420</v>
+      </c>
+      <c r="K27" t="n">
+        <v>45.17980371683022</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3685865992.661796</v>
+        <v>3419129875.790468</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1241049647955736</v>
+        <v>0.1242234104433277</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03845296243262143</v>
+        <v>0.04921093222816544</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>103</v>
+      </c>
+      <c r="J28" t="n">
+        <v>415</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1448,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5555521867.3986</v>
+        <v>3779661487.904176</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1381583151402678</v>
+        <v>0.1312584341462548</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03200148252144861</v>
+        <v>0.0324610995750065</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>350</v>
+      </c>
+      <c r="J29" t="n">
+        <v>420</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1783771684.979991</v>
+        <v>1689097263.961623</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1339460619227635</v>
+        <v>0.1318251127083234</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02949663054374242</v>
+        <v>0.02661164578466701</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1124018526.2592</v>
+        <v>1133368126.940802</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09535596695350741</v>
+        <v>0.07399163899577946</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03270207462915931</v>
+        <v>0.04530217654005021</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1559,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1749244895.235147</v>
+        <v>1832877770.805829</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1008399876556202</v>
+        <v>0.119989565873418</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03542033126767873</v>
+        <v>0.02666689637538514</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2447087676.539297</v>
+        <v>2242452679.855186</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2027214799542676</v>
+        <v>0.1735558195703211</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04851544575038692</v>
+        <v>0.05441916367340348</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1629,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1532475528.592193</v>
+        <v>1567675716.431268</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1106405521862212</v>
+        <v>0.1057552812083084</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01945849855656762</v>
+        <v>0.02290181562158087</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1075037755.218921</v>
+        <v>822108139.5650685</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08842387420389874</v>
+        <v>0.09147535270016208</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04155412962661218</v>
+        <v>0.03228825320941605</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2150450544.619474</v>
+        <v>2307868644.772347</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1512766481441483</v>
+        <v>0.1392670087794836</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01866657512045793</v>
+        <v>0.02238493601758132</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1845619242.98966</v>
+        <v>1942539770.722049</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08922525118730061</v>
+        <v>0.07867649369268509</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03004625506428673</v>
+        <v>0.0297252061386059</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1870725241.384558</v>
+        <v>1670815451.369102</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1144789005461186</v>
+        <v>0.0752626631962372</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03413143948671305</v>
+        <v>0.03380510168284015</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1495925375.44722</v>
+        <v>2189266422.145332</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1184741232329194</v>
+        <v>0.1199109152622432</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03304658116350148</v>
+        <v>0.02069273246204279</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1781928745.143715</v>
+        <v>1167329654.081478</v>
       </c>
       <c r="F40" t="n">
-        <v>0.105423460776575</v>
+        <v>0.1175986049597938</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04913595813105179</v>
+        <v>0.04034385056486221</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1874,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1868843390.187727</v>
+        <v>2865965356.098494</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1264272938830771</v>
+        <v>0.1334947847298796</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02869245665121126</v>
+        <v>0.02887887748589665</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1903,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3054172033.191727</v>
+        <v>3627565166.998837</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1011112686194306</v>
+        <v>0.1036392680018332</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04651284524734613</v>
+        <v>0.02814167091086866</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>179</v>
+      </c>
+      <c r="J42" t="n">
+        <v>420</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2222316091.96948</v>
+        <v>2216516752.243149</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1350821175481442</v>
+        <v>0.1854646673205662</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02199510777987394</v>
+        <v>0.0259118668700449</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1774269641.906999</v>
+        <v>1429510375.997303</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0900846423691911</v>
+        <v>0.09932408469822049</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03464336509148957</v>
+        <v>0.0293893311521783</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1630596626.484925</v>
+        <v>1631433900.082651</v>
       </c>
       <c r="F45" t="n">
-        <v>0.189388335920998</v>
+        <v>0.1678077741785974</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04870990738878842</v>
+        <v>0.03657450337115138</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2043,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4885328297.277294</v>
+        <v>5035265436.171355</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1555902243720379</v>
+        <v>0.1178647379995788</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04971087669779121</v>
+        <v>0.0589779020019471</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>251</v>
+      </c>
+      <c r="J46" t="n">
+        <v>420</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2078,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5018543276.333903</v>
+        <v>4371400965.413138</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1853623635630847</v>
+        <v>0.1844458424255174</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05495848150381108</v>
+        <v>0.05777232996798756</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>188</v>
+      </c>
+      <c r="J47" t="n">
+        <v>419</v>
+      </c>
+      <c r="K47" t="n">
+        <v>41.35173279664533</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2115,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4599500453.540297</v>
+        <v>3491205583.747752</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08358657999554683</v>
+        <v>0.09831004617085667</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02831787833478363</v>
+        <v>0.03495905626860658</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>215</v>
+      </c>
+      <c r="J48" t="n">
+        <v>418</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2150,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1481847021.691496</v>
+        <v>1841212481.341363</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1406206760816596</v>
+        <v>0.1566437720074712</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03141384157018733</v>
+        <v>0.02840458270798755</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2185,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2602845347.633996</v>
+        <v>3020212625.614513</v>
       </c>
       <c r="F50" t="n">
-        <v>0.16892090177935</v>
+        <v>0.1608088837575926</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04276705099054887</v>
+        <v>0.04817886490518764</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>145</v>
+      </c>
+      <c r="J50" t="n">
+        <v>419</v>
+      </c>
+      <c r="K50" t="n">
+        <v>30.42492408191066</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1423283246.092968</v>
+        <v>1270691404.10239</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1218801994698734</v>
+        <v>0.1645582656569094</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04138026781002969</v>
+        <v>0.05187968018525566</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2257,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3528132912.845123</v>
+        <v>4074806277.618907</v>
       </c>
       <c r="F52" t="n">
-        <v>0.115650084397725</v>
+        <v>0.08526718954948241</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03916124629040001</v>
+        <v>0.04985210960263526</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>242</v>
+      </c>
+      <c r="J52" t="n">
+        <v>420</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2292,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3066408124.166564</v>
+        <v>3194086282.776813</v>
       </c>
       <c r="F53" t="n">
-        <v>0.176331937917658</v>
+        <v>0.1449357217459378</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03008591243318049</v>
+        <v>0.02826594630363975</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>62</v>
+      </c>
+      <c r="J53" t="n">
+        <v>419</v>
+      </c>
+      <c r="K53" t="n">
+        <v>40.38825104134651</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3732051158.072659</v>
+        <v>4564129306.05946</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1240112525087384</v>
+        <v>0.1467550630202465</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05135720985638354</v>
+        <v>0.04471448822553886</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>223</v>
+      </c>
+      <c r="J54" t="n">
+        <v>420</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2370,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3267883555.524414</v>
+        <v>4717441778.69028</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1678951569775518</v>
+        <v>0.1512378043414941</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02427751704435154</v>
+        <v>0.03241689388520765</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>208</v>
+      </c>
+      <c r="J55" t="n">
+        <v>420</v>
+      </c>
+      <c r="K55" t="n">
+        <v>44.08477321600309</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1681900795.659904</v>
+        <v>1463614367.311355</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1302465134623989</v>
+        <v>0.1422920924436034</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04747328301008887</v>
+        <v>0.05292920257472908</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2442,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4370030065.309904</v>
+        <v>3105024802.726963</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1364744985778443</v>
+        <v>0.126218854348494</v>
       </c>
       <c r="G57" t="n">
-        <v>0.022945902324393</v>
+        <v>0.02556724030766794</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>182</v>
+      </c>
+      <c r="J57" t="n">
+        <v>419</v>
+      </c>
+      <c r="K57" t="n">
+        <v>26.25677484972465</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1460277594.730954</v>
+        <v>1176340808.008343</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1464434728689151</v>
+        <v>0.2008163050281834</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02912528512778238</v>
+        <v>0.03385387120154143</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2508,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4034187232.520464</v>
+        <v>3408521432.56804</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08291715334983911</v>
+        <v>0.09901278420337217</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03657616705594203</v>
+        <v>0.04167285367473755</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>205</v>
+      </c>
+      <c r="J59" t="n">
+        <v>418</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2549,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2627392056.563209</v>
+        <v>3564627011.682944</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1450351795372578</v>
+        <v>0.1884312707153649</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0308372687238113</v>
+        <v>0.02407904505724256</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>81</v>
+      </c>
+      <c r="J60" t="n">
+        <v>420</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2462744674.757356</v>
+        <v>2643703876.814554</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1230765259034128</v>
+        <v>0.1711152311168085</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02427877132009171</v>
+        <v>0.026794673385249</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1750268705.156369</v>
+        <v>1565697635.176894</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1209739789600303</v>
+        <v>0.1712733776854317</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03364832505250504</v>
+        <v>0.03394098656341767</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2648,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3486871444.508263</v>
+        <v>4881131684.423893</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08567257702287732</v>
+        <v>0.08697561212386803</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03694209461912215</v>
+        <v>0.03170111591455385</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>209</v>
+      </c>
+      <c r="J63" t="n">
+        <v>420</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2683,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5118361438.593154</v>
+        <v>3525588977.08365</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1811508325319209</v>
+        <v>0.1615577834242778</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02666393404018618</v>
+        <v>0.02610824189075094</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>210</v>
+      </c>
+      <c r="J64" t="n">
+        <v>420</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2718,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5684951694.968405</v>
+        <v>4611168392.069531</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1498360080247486</v>
+        <v>0.1685245347099901</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0266541347991202</v>
+        <v>0.02529005413159704</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>307</v>
+      </c>
+      <c r="J65" t="n">
+        <v>420</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2759,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4854369521.573629</v>
+        <v>4983195199.196781</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1107367721978774</v>
+        <v>0.1359312536515976</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04371092430016654</v>
+        <v>0.04186097439940599</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>207</v>
+      </c>
+      <c r="J66" t="n">
+        <v>419</v>
+      </c>
+      <c r="K66" t="n">
+        <v>41.8706137236488</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2790,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2256470633.673437</v>
+        <v>2929728219.20405</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07202246987974253</v>
+        <v>0.08412007721376873</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03439938521403495</v>
+        <v>0.03539611003877955</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2825,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5733361465.963419</v>
+        <v>4157728272.380429</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1036388313799966</v>
+        <v>0.1552400181839353</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04028673787313925</v>
+        <v>0.03430353449536983</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>229</v>
+      </c>
+      <c r="J68" t="n">
+        <v>420</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2860,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1979969836.677523</v>
+        <v>1862919027.869026</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1413711082989261</v>
+        <v>0.1753781176020596</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04064361608817842</v>
+        <v>0.0412721586468123</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2895,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2644085785.866614</v>
+        <v>2796550597.086383</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07988991176395334</v>
+        <v>0.1013956051893519</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0485416957763343</v>
+        <v>0.03347036921994448</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>56</v>
+      </c>
+      <c r="J70" t="n">
+        <v>413</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2936,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5326307212.698339</v>
+        <v>4730578040.535645</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1498661204923412</v>
+        <v>0.1487307044880412</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03053994795254465</v>
+        <v>0.02408404923742373</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>294</v>
+      </c>
+      <c r="J71" t="n">
+        <v>419</v>
+      </c>
+      <c r="K71" t="n">
+        <v>42.64477491739513</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2967,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2170536559.791211</v>
+        <v>2217175519.194602</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08189509445827078</v>
+        <v>0.09576823582002419</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04691722304694459</v>
+        <v>0.0331289114971685</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3002,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2204627670.333212</v>
+        <v>2317771010.965918</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09828644296392981</v>
+        <v>0.08283905718924565</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03942290732322733</v>
+        <v>0.03190822407870973</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3037,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3707959531.868813</v>
+        <v>2698704212.474561</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1802889694670454</v>
+        <v>0.1649639767424542</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02435911039743999</v>
+        <v>0.02596803991373645</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>120</v>
+      </c>
+      <c r="J74" t="n">
+        <v>419</v>
+      </c>
+      <c r="K74" t="n">
+        <v>25.47984459678111</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3080,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2042923543.880548</v>
+        <v>1521808596.603432</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1461796248822865</v>
+        <v>0.1671849530598398</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02615277866885196</v>
+        <v>0.0264200407630928</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3109,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5376916092.413427</v>
+        <v>4949684823.10433</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09214001794716278</v>
+        <v>0.1171730202944428</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02266095547976152</v>
+        <v>0.02696651149521472</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>200</v>
+      </c>
+      <c r="J76" t="n">
+        <v>419</v>
+      </c>
+      <c r="K76" t="n">
+        <v>41.64125039271745</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3146,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1468406410.520453</v>
+        <v>1796700185.831522</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1772159133033663</v>
+        <v>0.1769470257232728</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02149646828513239</v>
+        <v>0.0283134287919621</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3181,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3390158955.316575</v>
+        <v>4479885603.458557</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1157865907836517</v>
+        <v>0.08784763060824746</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03886104014769743</v>
+        <v>0.04448159404654351</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>210</v>
+      </c>
+      <c r="J78" t="n">
+        <v>420</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3222,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1815873190.240484</v>
+        <v>1246476863.917365</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1682336984699193</v>
+        <v>0.1280873510663542</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03915728188611523</v>
+        <v>0.02715960001122522</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3257,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4507248087.04428</v>
+        <v>5399252454.434648</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1069571798835183</v>
+        <v>0.06822604185203326</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03099307489401798</v>
+        <v>0.03837959830530545</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>205</v>
+      </c>
+      <c r="J80" t="n">
+        <v>419</v>
+      </c>
+      <c r="K80" t="n">
+        <v>36.87418346568084</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3288,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4280982222.66269</v>
+        <v>3515928304.257939</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1232225819862665</v>
+        <v>0.1112303011868156</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02882850096674467</v>
+        <v>0.02336007795628405</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>195</v>
+      </c>
+      <c r="J81" t="n">
+        <v>419</v>
+      </c>
+      <c r="K81" t="n">
+        <v>31.82241184676722</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5393789198.246494</v>
+        <v>4012429479.535627</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1843386400161132</v>
+        <v>0.200779529022029</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02583181726386531</v>
+        <v>0.02807459499023156</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>285</v>
+      </c>
+      <c r="J82" t="n">
+        <v>419</v>
+      </c>
+      <c r="K82" t="n">
+        <v>40.89178114321802</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2248875795.582799</v>
+        <v>1887644544.79708</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1349974394050552</v>
+        <v>0.1306718398134527</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0439549350038589</v>
+        <v>0.02990109494690944</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3403,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1862280618.437581</v>
+        <v>2238302887.172288</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1011529478928599</v>
+        <v>0.1126331828207067</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04723611374690618</v>
+        <v>0.04164799910699789</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,16 +3438,25 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2950008116.483078</v>
+        <v>2934326628.572088</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1655103019996809</v>
+        <v>0.1797170733549675</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04530932722164613</v>
+        <v>0.04415204814375624</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>53</v>
+      </c>
+      <c r="J85" t="n">
+        <v>420</v>
+      </c>
+      <c r="K85" t="n">
+        <v>44.94894902261563</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1792394139.001093</v>
+        <v>2318645521.584405</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1492545647661912</v>
+        <v>0.1599312013766467</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02459583236526035</v>
+        <v>0.01685998468485633</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>992429193.768436</v>
+        <v>973957507.2104639</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1590936445804154</v>
+        <v>0.1298275968793337</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02790871149477843</v>
+        <v>0.03687143278373104</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3539,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3279568404.133852</v>
+        <v>2576864201.892272</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1224924383123476</v>
+        <v>0.1700007937864266</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02494968376184582</v>
+        <v>0.0253019591789531</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>54</v>
+      </c>
+      <c r="J88" t="n">
+        <v>419</v>
+      </c>
+      <c r="K88" t="n">
+        <v>29.54875541172934</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3365087447.768385</v>
+        <v>2356421984.016634</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1309098222177363</v>
+        <v>0.1230641513000885</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02847716625899577</v>
+        <v>0.02585689391809132</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2075905552.327343</v>
+        <v>1591390056.157618</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1315954040226704</v>
+        <v>0.11299042186262</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03534616144378772</v>
+        <v>0.04675543216661125</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1451257016.727473</v>
+        <v>1504173508.970883</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1266422423551652</v>
+        <v>0.1273629221874581</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04012134084217839</v>
+        <v>0.05898970171019435</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2816681166.490948</v>
+        <v>2447720717.422005</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08596016164152012</v>
+        <v>0.07053214413318715</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04717329294241506</v>
+        <v>0.03267706341455518</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4705011538.069028</v>
+        <v>4078998426.841731</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0980877779742277</v>
+        <v>0.1412000687318391</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04772801479770646</v>
+        <v>0.0500761025631234</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>201</v>
+      </c>
+      <c r="J93" t="n">
+        <v>420</v>
+      </c>
+      <c r="K93" t="n">
+        <v>43.22747664051722</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2438941770.952787</v>
+        <v>2373659661.491221</v>
       </c>
       <c r="F94" t="n">
-        <v>0.119951871679476</v>
+        <v>0.129164445121863</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03868427388288612</v>
+        <v>0.04223258365513556</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2876840840.202679</v>
+        <v>2946445412.094024</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09763661647590022</v>
+        <v>0.1256422892545488</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03883720146373283</v>
+        <v>0.03853149079809687</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1542590720.33043</v>
+        <v>2083839448.930299</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1306369793096833</v>
+        <v>0.1387845603827885</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03685345083091166</v>
+        <v>0.03716673565925293</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4092554717.097694</v>
+        <v>5122144298.785389</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1606832910998449</v>
+        <v>0.1293733121697219</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02060613411687819</v>
+        <v>0.01807219075767787</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>220</v>
+      </c>
+      <c r="J97" t="n">
+        <v>419</v>
+      </c>
+      <c r="K97" t="n">
+        <v>39.99800343490879</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2692147574.271396</v>
+        <v>3504952366.697663</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08366260724425138</v>
+        <v>0.09064476206797593</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02558474273319323</v>
+        <v>0.02765230172453232</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>108</v>
+      </c>
+      <c r="J98" t="n">
+        <v>416</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2464916433.638357</v>
+        <v>2143496484.634356</v>
       </c>
       <c r="F99" t="n">
-        <v>0.102905502659556</v>
+        <v>0.1301553295632034</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02962880300000217</v>
+        <v>0.02548598833631522</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3731798630.690061</v>
+        <v>4250504799.452759</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1534201720736503</v>
+        <v>0.1259504617689613</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02054646461310866</v>
+        <v>0.02496214758368595</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>195</v>
+      </c>
+      <c r="J100" t="n">
+        <v>420</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2644187619.237813</v>
+        <v>3405409429.259693</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1715289418087632</v>
+        <v>0.1964566205529984</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04738221282169557</v>
+        <v>0.05513076777627026</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
